--- a/Data/PortlandHousingPrices.xlsx
+++ b/Data/PortlandHousingPrices.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jsubapple/Documents/Dropbox/Repos/MLCourse/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/js/Dropbox/Repos/MLCourse/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="28720" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25520" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="172" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -103,7 +103,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -387,8 +387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -936,7 +936,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
